--- a/random/results/sensitivity/gaps_benchmark/all3.xlsx
+++ b/random/results/sensitivity/gaps_benchmark/all3.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/random/results/sensitivity/gaps_benchmark/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/random/results/sensitivity/gaps_benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBA71BA-E931-1444-90ED-04736FCABC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1500" windowWidth="30720" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="7520" windowWidth="30720" windowHeight="17240"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>CV-R</t>
   </si>
@@ -46,11 +51,14 @@
   <si>
     <t>static2SSP-R</t>
   </si>
+  <si>
+    <t>wait-and-see</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -895,11 +903,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I11"/>
+      <selection activeCell="I1" sqref="I1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -910,7 +918,7 @@
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -918,405 +926,449 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>5318.0878240000002</v>
+        <v>5206.1440670000002</v>
       </c>
       <c r="B2">
-        <v>5500.051813</v>
+        <v>5283.1487790000001</v>
       </c>
       <c r="C2">
-        <v>10536.06337</v>
+        <v>5289.8962849999998</v>
       </c>
       <c r="D2">
-        <v>11379.26462</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>8008.3953490000004</v>
+      </c>
+      <c r="E2">
+        <v>14224.55737</v>
+      </c>
       <c r="F2" s="2">
         <v>0.05</v>
       </c>
       <c r="G2" s="4">
         <f>(B2-$A2)/$A2</f>
-        <v>3.4216055661738888E-2</v>
+        <v>1.4791121991438337E-2</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" ref="H2:I2" si="0">(C2-$A2)/$A2</f>
-        <v>0.98117513638112486</v>
+        <f>(C2-$A2)/$A2</f>
+        <v>1.6087187930675376E-2</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1397286010671943</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(D2-$A2)/$A2</f>
+        <v>0.53825849725568109</v>
+      </c>
+      <c r="J2" s="4">
+        <f>(E2-$A2)/$A2</f>
+        <v>1.7322634923156845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>5420.8758639999996</v>
+        <v>5464.6764720000001</v>
       </c>
       <c r="B3">
-        <v>6194.2516489999998</v>
+        <v>5979.3489239999999</v>
       </c>
       <c r="C3">
-        <v>10645.412060000001</v>
+        <v>6222.2865780000002</v>
       </c>
       <c r="D3">
-        <v>11497.18885</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>8143.2743710000004</v>
+      </c>
+      <c r="E3">
+        <v>14321.9571</v>
+      </c>
       <c r="F3" s="2">
         <v>0.1</v>
       </c>
       <c r="G3" s="4">
         <f>(B3-$A3)/$A3</f>
-        <v>0.14266620457701007</v>
+        <v>9.4181687541263798E-2</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:I3" si="1">(C3-$A3)/$A3</f>
-        <v>0.96378082196939996</v>
+        <f>(C3-$A3)/$A3</f>
+        <v>0.13863768694850562</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1209098194542242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(D3-$A3)/$A3</f>
+        <v>0.49016587033553488</v>
+      </c>
+      <c r="J3" s="4">
+        <f>(E3-$A3)/$A3</f>
+        <v>1.6208243385281969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>5523.5761000000002</v>
+        <v>5612.8128210000004</v>
       </c>
       <c r="B4">
-        <v>6689.7266579999996</v>
+        <v>6481.7948939999997</v>
       </c>
       <c r="C4">
-        <v>10831.087030000001</v>
+        <v>7154.6768709999997</v>
       </c>
       <c r="D4">
-        <v>11611.74663</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>8278.1533930000005</v>
+      </c>
+      <c r="E4">
+        <v>14419.35684</v>
+      </c>
       <c r="F4" s="2">
         <v>0.15</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G11" si="2">(B4-$A4)/$A4</f>
-        <v>0.21112238464497651</v>
+        <f t="shared" ref="G4:G11" si="0">(B4-$A4)/$A4</f>
+        <v>0.15482113883234361</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H11" si="3">(C4-$A4)/$A4</f>
-        <v>0.96088310071440863</v>
+        <f>(C4-$A4)/$A4</f>
+        <v>0.274704341507917</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I11" si="4">(D4-$A4)/$A4</f>
-        <v>1.1022153799963033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(D4-$A4)/$A4</f>
+        <v>0.47486717569269177</v>
+      </c>
+      <c r="J4" s="4">
+        <f>(E4-$A4)/$A4</f>
+        <v>1.5690072517741636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5626.2710370000004</v>
+        <v>5748.1892740000003</v>
       </c>
       <c r="B5">
-        <v>7104.1334800000004</v>
+        <v>6873.1211300000004</v>
       </c>
       <c r="C5">
-        <v>10908.28116</v>
+        <v>8087.0671650000004</v>
       </c>
       <c r="D5">
-        <v>11721.214019999999</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>8413.0324149999997</v>
+      </c>
+      <c r="E5">
+        <v>14516.75657</v>
+      </c>
       <c r="F5" s="2">
         <v>0.2</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="2"/>
-        <v>0.26267174710943453</v>
+        <f t="shared" si="0"/>
+        <v>0.19570195106278959</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="3"/>
-        <v>0.9388118859301231</v>
+        <f>(C5-$A5)/$A5</f>
+        <v>0.40688950546202907</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="4"/>
-        <v>1.083300634277637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(D5-$A5)/$A5</f>
+        <v>0.4635969718418147</v>
+      </c>
+      <c r="J5" s="4">
+        <f>(E5-$A5)/$A5</f>
+        <v>1.5254486026863558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5728.9658330000002</v>
+        <v>5883.069641</v>
       </c>
       <c r="B6">
-        <v>7447.1906769999996</v>
+        <v>7222.0352329999996</v>
       </c>
       <c r="C6">
-        <v>10877.14812</v>
+        <v>9019.4574580000008</v>
       </c>
       <c r="D6">
-        <v>11829.17548</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>8547.9114370000007</v>
+      </c>
+      <c r="E6">
+        <v>14614.15631</v>
+      </c>
       <c r="F6" s="2">
         <v>0.25</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="2"/>
-        <v>0.29991884994368045</v>
+        <f t="shared" si="0"/>
+        <v>0.22759642052654727</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="3"/>
-        <v>0.89862331825151232</v>
+        <f>(C6-$A6)/$A6</f>
+        <v>0.53312097397964509</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="4"/>
-        <v>1.0648011918419134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(D6-$A6)/$A6</f>
+        <v>0.45296791617565019</v>
+      </c>
+      <c r="J6" s="4">
+        <f>(E6-$A6)/$A6</f>
+        <v>1.4841039120379844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5831.660629</v>
+        <v>6017.9486630000001</v>
       </c>
       <c r="B7">
-        <v>7759.2678569999998</v>
+        <v>7525.7132680000004</v>
       </c>
       <c r="C7">
-        <v>11135.580319999999</v>
+        <v>9951.8477509999993</v>
       </c>
       <c r="D7">
-        <v>11937.134819999999</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>8682.7904589999998</v>
+      </c>
+      <c r="E7">
+        <v>14711.556039999999</v>
+      </c>
       <c r="F7" s="2">
         <v>0.3</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="2"/>
-        <v>0.33054173598756581</v>
+        <f t="shared" si="0"/>
+        <v>0.25054461070267198</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="3"/>
-        <v>0.90950417529860672</v>
+        <f>(C7-$A7)/$A7</f>
+        <v>0.65369435804374509</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="4"/>
-        <v>1.0469529314923376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(D7-$A7)/$A7</f>
+        <v>0.44281564121411976</v>
+      </c>
+      <c r="J7" s="4">
+        <f>(E7-$A7)/$A7</f>
+        <v>1.4446130839318527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5934.3554249999997</v>
+        <v>6152.8276850000002</v>
       </c>
       <c r="B8">
-        <v>8054.5616810000001</v>
+        <v>7814.7203300000001</v>
       </c>
       <c r="C8">
-        <v>11319.96041</v>
+        <v>10884.23804</v>
       </c>
       <c r="D8">
-        <v>12063.939270000001</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>8817.6694810000008</v>
+      </c>
+      <c r="E8">
+        <v>14808.95578</v>
+      </c>
       <c r="F8" s="2">
         <v>0.35</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="2"/>
-        <v>0.35727658762535286</v>
+        <f t="shared" si="0"/>
+        <v>0.27010225705678931</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="3"/>
-        <v>0.90752989993011757</v>
+        <f>(C8-$A8)/$A8</f>
+        <v>0.76898145003064555</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="4"/>
-        <v>1.032897999195928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(D8-$A8)/$A8</f>
+        <v>0.433108471816402</v>
+      </c>
+      <c r="J8" s="4">
+        <f>(E8-$A8)/$A8</f>
+        <v>1.4068536513874432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6037.0502210000004</v>
+        <v>6287.7067070000003</v>
       </c>
       <c r="B9">
-        <v>8333.852707</v>
+        <v>8080.3296280000004</v>
       </c>
       <c r="C9">
-        <v>11355.21139</v>
+        <v>11816.628339999999</v>
       </c>
       <c r="D9">
-        <v>12174.093210000001</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>8952.548503</v>
+      </c>
+      <c r="E9">
+        <v>14906.355519999999</v>
+      </c>
       <c r="F9" s="2">
         <v>0.4</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="2"/>
-        <v>0.38045111468685916</v>
+        <f t="shared" si="0"/>
+        <v>0.28509964038308316</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="3"/>
-        <v>0.88092047843177945</v>
+        <f>(C9-$A9)/$A9</f>
+        <v>0.87932244467521703</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="4"/>
-        <v>1.0165631830678123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(D9-$A9)/$A9</f>
+        <v>0.42381776380143099</v>
+      </c>
+      <c r="J9" s="4">
+        <f>(E9-$A9)/$A9</f>
+        <v>1.3707141911382412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>6139.7450170000002</v>
+        <v>6422.5857290000004</v>
       </c>
       <c r="B10">
-        <v>8610.7406439999995</v>
+        <v>8341.3361490000007</v>
       </c>
       <c r="C10">
-        <v>11337.65314</v>
+        <v>12749.01863</v>
       </c>
       <c r="D10">
-        <v>12284.16352</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>9087.4275240000006</v>
+      </c>
+      <c r="E10">
+        <v>15003.75525</v>
+      </c>
       <c r="F10" s="2">
         <v>0.45</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="2"/>
-        <v>0.40245899791574347</v>
+        <f t="shared" si="0"/>
+        <v>0.29875045674147049</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="3"/>
-        <v>0.8465999986331354</v>
+        <f>(C10-$A10)/$A10</f>
+        <v>0.98502895374897992</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="4"/>
-        <v>1.000761185682314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(D10-$A10)/$A10</f>
+        <v>0.41491727902788422</v>
+      </c>
+      <c r="J10" s="4">
+        <f>(E10-$A10)/$A10</f>
+        <v>1.3360926397997792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>6242.439813</v>
+        <v>6557.4647510000004</v>
       </c>
       <c r="B11">
-        <v>8886.9555970000001</v>
+        <v>8599.6395969999994</v>
       </c>
       <c r="C11">
-        <v>11380.91624</v>
+        <v>13681.40892</v>
       </c>
       <c r="D11">
-        <v>12388.22572</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>9222.3065459999998</v>
+      </c>
+      <c r="E11">
+        <v>15101.154990000001</v>
+      </c>
       <c r="F11" s="2">
         <v>0.5</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="2"/>
-        <v>0.42363496697120662</v>
+        <f t="shared" si="0"/>
+        <v>0.31142749881935261</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="3"/>
-        <v>0.82315193753234517</v>
+        <f>(C11-$A11)/$A11</f>
+        <v>1.086386955860283</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="4"/>
-        <v>0.98451664591163279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(D11-$A11)/$A11</f>
+        <v>0.40638293855771263</v>
+      </c>
+      <c r="J11" s="4">
+        <f>(E11-$A11)/$A11</f>
+        <v>1.3028953358380011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F26" s="2"/>
